--- a/src/assets/files/活动学分信息表.xlsx
+++ b/src/assets/files/活动学分信息表.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowHeight="21620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>活动名称</t>
   </si>
   <si>
+    <t>某活动名称</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 学号</t>
   </si>
   <si>
@@ -29,6 +32,30 @@
   </si>
   <si>
     <t>学分</t>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
+  <si>
+    <t>ZF210001</t>
+  </si>
+  <si>
+    <t>学分宝</t>
+  </si>
+  <si>
+    <t>ZF2108班</t>
+  </si>
+  <si>
+    <t>文体学分</t>
+  </si>
+  <si>
+    <t>ZF210002</t>
+  </si>
+  <si>
+    <t>学分贝</t>
+  </si>
+  <si>
+    <t>志愿者学分</t>
   </si>
 </sst>
 </file>
@@ -36,12 +63,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,35 +77,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -86,8 +85,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,97 +185,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,7 +245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,73 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,108 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -425,11 +466,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,34 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +551,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,163 +605,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1007,141 +1106,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="11.8083333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4">
+    <row r="1" ht="25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="23" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
